--- a/URS/DbLayouts/L8-遵循法令作業/JcicB092.xlsx
+++ b/URS/DbLayouts/L8-遵循法令作業/JcicB092.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SKLmy\_prog\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E49E2F0-92CA-411C-A687-3563877CB1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61A73E0-006E-4AA7-A761-823B7A2E0C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="371">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -672,9 +672,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    -- 寫入資料</t>
-  </si>
-  <si>
     <t xml:space="preserve">    INSERT INTO "Work_B092"</t>
   </si>
   <si>
@@ -789,9 +786,6 @@
     <t xml:space="preserve">         , NVL(TRIM(L."AreaCode"), '00')         AS "AreaCode"</t>
   </si>
   <si>
-    <t>--           WHEN "ClBuilding"."IrCode" IS NOT NULL THEN SUBSTR('0000' || "ClBuilding"."IrCode", -4)</t>
-  </si>
-  <si>
     <t xml:space="preserve">             WHEN L."IrCode" IS NOT NULL THEN SUBSTR('0000' || L."IrCode", -4)</t>
   </si>
   <si>
@@ -990,9 +984,6 @@
     <t xml:space="preserve">      LEFT JOIN ( SELECT DISTINCT</t>
   </si>
   <si>
-    <t xml:space="preserve">                         O."ClCode1", O."ClCode2", O."ClNo", O."OwnerId", O."OwnerPart", O."OwnerTotal"</t>
-  </si>
-  <si>
     <t xml:space="preserve">                  FROM "ClBuildingOwner" O</t>
   </si>
   <si>
@@ -1050,9 +1041,6 @@
     <t xml:space="preserve">      AND  SUBSTR(CD2."ClTypeJCIC",1,1) IN ('2')            -- 擔保品為不動產</t>
   </si>
   <si>
-    <t>--    AND  L."ClNo" IS NOT NULL</t>
-  </si>
-  <si>
     <t xml:space="preserve">      AND  NVL(L."LandNo1", 0) &gt; 0</t>
   </si>
   <si>
@@ -1075,10 +1063,6 @@
   </si>
   <si>
     <t xml:space="preserve">      ;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    SELECT</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>-- 擔保品類別更新為 '20' (ref:AS400 LN15M1)</t>
@@ -1327,12 +1311,41 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
+    <t>to_char(MAX(WK."LandOwnedArea"),'FM0000000.00')</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    SELECT  -- count(*) as "Count"</t>
+  </si>
+  <si>
     <t xml:space="preserve">                THEN to_char(TRUNC(NVL("ClBuildingParking"."Area",0) / 0.3025, 2), 'FM000000.00')</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>to_char(MAX(WK."LandOwnedArea"),'FM0000000.00')</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                         O."ClCode1", O."ClCode2", O."ClNo", O."OwnerPart", O."OwnerTotal"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                       , C."CustId"  AS "OwnerId"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    LEFT JOIN "CustMain" C  ON  C."CustUKey"  = O."OwnerCustUKey"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    INS_CNT := INS_CNT + sql%rowcount;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    DBMS_OUTPUT.PUT_LINE('INSERT Work_B092 END: INS_CNT=' || INS_CNT);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    DBMS_OUTPUT.PUT_LINE('UPDATE Work_B092 ClTypeJCIC');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    DBMS_OUTPUT.PUT_LINE('UPDATE Work_B092 ClTypeJCIC INS_CNT=' || INS_CNT);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    DBMS_OUTPUT.PUT_LINE('UPDATE Work_B092 ClTypeJCIC END');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    DBMS_OUTPUT.PUT_LINE('UPDATE Work_B092 BdNo1 BdNo2');</t>
   </si>
 </sst>
 </file>
@@ -2058,7 +2071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
@@ -2232,7 +2245,7 @@
       <c r="H9" s="28"/>
       <c r="I9" s="29"/>
       <c r="J9" s="30" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2262,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2292,7 +2305,7 @@
         <v>2</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2322,7 +2335,7 @@
         <v>3</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2352,7 +2365,7 @@
         <v>4</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2382,7 +2395,7 @@
         <v>5</v>
       </c>
       <c r="J14" s="30" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2412,7 +2425,7 @@
         <v>6</v>
       </c>
       <c r="J15" s="30" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2442,7 +2455,7 @@
         <v>7</v>
       </c>
       <c r="J16" s="30" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2472,7 +2485,7 @@
         <v>8</v>
       </c>
       <c r="J17" s="30" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2502,7 +2515,7 @@
         <v>9</v>
       </c>
       <c r="J18" s="30" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2532,7 +2545,7 @@
         <v>10</v>
       </c>
       <c r="J19" s="30" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2562,7 +2575,7 @@
         <v>11</v>
       </c>
       <c r="J20" s="30" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -2591,7 +2604,7 @@
         <v>12</v>
       </c>
       <c r="J21" s="34" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -2620,7 +2633,7 @@
         <v>13</v>
       </c>
       <c r="J22" s="34" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
@@ -2649,7 +2662,7 @@
         <v>14</v>
       </c>
       <c r="J23" s="34" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -2678,7 +2691,7 @@
         <v>15</v>
       </c>
       <c r="J24" s="34" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -2708,7 +2721,7 @@
         <v>16</v>
       </c>
       <c r="J25" s="30" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -2737,7 +2750,7 @@
         <v>17</v>
       </c>
       <c r="J26" s="34" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -2766,7 +2779,7 @@
         <v>18</v>
       </c>
       <c r="J27" s="34" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -2795,7 +2808,7 @@
         <v>19</v>
       </c>
       <c r="J28" s="34" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -2824,7 +2837,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="34" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -2853,7 +2866,7 @@
         <v>21.1</v>
       </c>
       <c r="J30" s="34" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -2882,7 +2895,7 @@
         <v>21.2</v>
       </c>
       <c r="J31" s="34" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -2911,7 +2924,7 @@
         <v>22.1</v>
       </c>
       <c r="J32" s="34" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -2940,7 +2953,7 @@
         <v>22.2</v>
       </c>
       <c r="J33" s="34" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -2966,7 +2979,7 @@
         <v>23</v>
       </c>
       <c r="J34" s="34" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="69" x14ac:dyDescent="0.3">
@@ -2995,7 +3008,7 @@
         <v>24</v>
       </c>
       <c r="J35" s="34" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -3021,7 +3034,7 @@
         <v>25</v>
       </c>
       <c r="J36" s="34" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -3047,7 +3060,7 @@
         <v>26</v>
       </c>
       <c r="J37" s="34" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -3073,7 +3086,7 @@
         <v>27</v>
       </c>
       <c r="J38" s="34" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -3099,7 +3112,7 @@
         <v>28</v>
       </c>
       <c r="J39" s="34" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="69" x14ac:dyDescent="0.3">
@@ -3125,7 +3138,7 @@
         <v>29</v>
       </c>
       <c r="J40" s="34" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="69" x14ac:dyDescent="0.3">
@@ -3154,7 +3167,7 @@
         <v>30</v>
       </c>
       <c r="J41" s="34" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -3183,7 +3196,7 @@
         <v>31</v>
       </c>
       <c r="J42" s="34" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="55.2" x14ac:dyDescent="0.3">
@@ -3209,7 +3222,7 @@
         <v>32</v>
       </c>
       <c r="J43" s="34" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -3238,7 +3251,7 @@
         <v>33</v>
       </c>
       <c r="J44" s="34" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -3268,7 +3281,7 @@
         <v>34</v>
       </c>
       <c r="J45" s="30" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="46" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -3528,10 +3541,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2DDCAE-8B77-4D27-A108-5527065C8747}">
-  <dimension ref="A1:A172"/>
+  <dimension ref="A1:A185"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="A157" sqref="A157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3547,12 +3560,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>153</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
-        <v>287</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
@@ -3622,12 +3635,12 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
@@ -3642,12 +3655,12 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="33" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
@@ -3662,12 +3675,12 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
@@ -3687,12 +3700,12 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="33" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="33" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -3727,12 +3740,12 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="33" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="33" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -3762,12 +3775,12 @@
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="33" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="33" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
@@ -3812,17 +3825,17 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="33" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="33" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
@@ -3832,17 +3845,17 @@
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="33" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="33" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
@@ -3852,17 +3865,17 @@
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="33" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="33" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
@@ -3877,17 +3890,17 @@
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="33" t="s">
-        <v>209</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="33" t="s">
-        <v>160</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
@@ -3917,17 +3930,17 @@
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="33" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="33" t="s">
-        <v>160</v>
+        <v>217</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
@@ -3942,32 +3955,32 @@
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="33" t="s">
-        <v>220</v>
+        <v>361</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="33" t="s">
-        <v>364</v>
+        <v>221</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="33" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="33" t="s">
-        <v>160</v>
+        <v>223</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
@@ -4132,262 +4145,302 @@
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="33" t="s">
-        <v>256</v>
+        <v>362</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="33" t="s">
-        <v>257</v>
+        <v>363</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="33" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="33" t="s">
-        <v>259</v>
+        <v>364</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="33" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="33" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="33" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="33" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="33" t="s">
-        <v>258</v>
+        <v>362</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="33" t="s">
-        <v>263</v>
+        <v>363</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="33" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="33" t="s">
-        <v>265</v>
+        <v>364</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="33" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="33" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="33" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="33" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="33" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="33" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="33" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="33" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="33" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="33" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="33" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="33" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="33" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="33" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="33" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="33" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="33" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="33" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="33" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="33" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="33" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="33" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="33" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" s="33" t="s">
-        <v>288</v>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" s="33" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="33" t="s">
-        <v>289</v>
+        <v>365</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" s="33" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" s="33" t="s">
-        <v>286</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" s="33" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="33" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" s="33" t="s">
-        <v>289</v>
+        <v>367</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="33" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="33" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="33" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="33" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" s="33" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="33" t="s">
-        <v>298</v>
+        <v>365</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="33" t="s">
-        <v>294</v>
+        <v>368</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="33" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" s="33" t="s">
-        <v>297</v>
+        <v>369</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="33" t="s">
-        <v>286</v>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" s="33" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" s="33" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" s="33" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" s="33" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" s="33" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" s="33" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" s="33" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" s="33" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" s="33" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" s="33" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" s="33" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" s="33" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -4412,27 +4465,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
@@ -4475,32 +4528,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
@@ -4508,147 +4561,147 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="33" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="33" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="33" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="33" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="33" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="33" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="33" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="33" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="33" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="33" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
